--- a/ajou-assignment_seat-assignment_2021-11-01_2021-12-31.xlsx
+++ b/ajou-assignment_seat-assignment_2021-11-01_2021-12-31.xlsx
@@ -7,15 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="developer" sheetId="1" r:id="rId1"/>
-    <sheet name="raw_data" sheetId="2" r:id="rId2"/>
+    <sheet name="charts" sheetId="1" r:id="rId1"/>
+    <sheet name="developer" sheetId="2" r:id="rId2"/>
+    <sheet name="branch_cm" sheetId="3" r:id="rId3"/>
+    <sheet name="branch_aoc" sheetId="4" r:id="rId4"/>
+    <sheet name="raw_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="127">
   <si>
     <t>main</t>
   </si>
@@ -38,6 +41,9 @@
     <t>이경민</t>
   </si>
   <si>
+    <t>weeknum</t>
+  </si>
+  <si>
     <t>sha</t>
   </si>
   <si>
@@ -48,9 +54,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>weeknum</t>
   </si>
   <si>
     <t>email</t>
@@ -466,6 +469,167 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>test</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'branch_cm'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'branch_cm'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,9 +917,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -819,7 +996,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>16831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>-42552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>22818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -829,19 +1128,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>

--- a/ajou-assignment_seat-assignment_2021-11-01_2021-12-31.xlsx
+++ b/ajou-assignment_seat-assignment_2021-11-01_2021-12-31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
   <si>
     <t>main</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>weeknum</t>
+  </si>
+  <si>
+    <t>ajou-assignment/seat-assignment</t>
   </si>
   <si>
     <t>sha</t>
@@ -405,9 +408,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,9 +468,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -474,7 +486,26 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="17"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Commits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -483,21 +514,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>test</c:v>
+            <c:v>main</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:showVal val="1"/>
@@ -597,20 +617,154 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="11"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AmountOfChanges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>main</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'branch_aoc'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'branch_aoc'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -624,6 +778,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -917,12 +1101,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -937,18 +1127,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -959,7 +1149,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -970,7 +1160,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -981,7 +1171,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -1005,15 +1195,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45</v>
       </c>
       <c r="B2">
@@ -1021,7 +1211,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>46</v>
       </c>
       <c r="B3">
@@ -1029,7 +1219,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>47</v>
       </c>
       <c r="B4">
@@ -1037,7 +1227,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>48</v>
       </c>
       <c r="B5">
@@ -1045,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>49</v>
       </c>
       <c r="B6">
@@ -1066,15 +1256,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45</v>
       </c>
       <c r="B2">
@@ -1082,7 +1272,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>46</v>
       </c>
       <c r="B3">
@@ -1090,7 +1280,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>47</v>
       </c>
       <c r="B4">
@@ -1098,7 +1288,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>48</v>
       </c>
       <c r="B5">
@@ -1106,7 +1296,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>49</v>
       </c>
       <c r="B6">
@@ -1127,55 +1317,55 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>49</v>
@@ -1184,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1200,20 +1390,20 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>49</v>
@@ -1222,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1238,20 +1428,20 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>49</v>
@@ -1260,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4">
         <v>107</v>
@@ -1276,20 +1466,20 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>49</v>
@@ -1298,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5">
         <v>98</v>
@@ -1314,20 +1504,20 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>49</v>
@@ -1336,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>59</v>
@@ -1352,20 +1542,20 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>49</v>
@@ -1374,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I7">
         <v>192</v>
@@ -1390,20 +1580,20 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>49</v>
@@ -1412,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I8">
         <v>38</v>
@@ -1428,20 +1618,20 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>49</v>
@@ -1450,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I9">
         <v>92</v>
@@ -1466,20 +1656,20 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>49</v>
@@ -1488,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10">
         <v>21</v>
@@ -1504,20 +1694,20 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>49</v>
@@ -1526,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1542,20 +1732,20 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>49</v>
@@ -1564,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I12">
         <v>89</v>
@@ -1580,20 +1770,20 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>49</v>
@@ -1602,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I13">
         <v>118</v>
@@ -1618,20 +1808,20 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14">
         <v>49</v>
@@ -1640,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I14">
         <v>307</v>
@@ -1656,20 +1846,20 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>49</v>
@@ -1678,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1694,20 +1884,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>49</v>
@@ -1716,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16">
         <v>116</v>
@@ -1732,20 +1922,20 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <v>49</v>
@@ -1754,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I17">
         <v>1074</v>
@@ -1770,20 +1960,20 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <v>49</v>
@@ -1792,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I18">
         <v>85</v>
@@ -1808,20 +1998,20 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19">
         <v>49</v>
@@ -1830,7 +2020,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19">
         <v>228</v>
@@ -1846,20 +2036,20 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>49</v>
@@ -1868,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20">
         <v>21792</v>
@@ -1884,20 +2074,20 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21">
         <v>49</v>
@@ -1906,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21">
         <v>228</v>
@@ -1922,20 +2112,20 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -1944,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I22">
         <v>207</v>
@@ -1960,20 +2150,20 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23">
         <v>48</v>
@@ -1982,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23">
         <v>107</v>
@@ -1998,20 +2188,20 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>48</v>
@@ -2020,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I24">
         <v>45</v>
@@ -2036,20 +2226,20 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <v>48</v>
@@ -2058,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25">
         <v>143</v>
@@ -2074,20 +2264,20 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26">
         <v>48</v>
@@ -2096,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2112,20 +2302,20 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <v>48</v>
@@ -2134,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27">
         <v>152</v>
@@ -2150,20 +2340,20 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>48</v>
@@ -2172,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I28">
         <v>152</v>
@@ -2188,20 +2378,20 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>47</v>
@@ -2210,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2226,20 +2416,20 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>47</v>
@@ -2248,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2264,20 +2454,20 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <v>47</v>
@@ -2286,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I31">
         <v>28</v>
@@ -2302,20 +2492,20 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32">
         <v>47</v>
@@ -2324,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32">
         <v>45</v>
@@ -2340,20 +2530,20 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33">
         <v>47</v>
@@ -2362,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I33">
         <v>25</v>
@@ -2378,20 +2568,20 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F34">
         <v>47</v>
@@ -2400,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I34">
         <v>149</v>
@@ -2416,20 +2606,20 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <v>47</v>
@@ -2438,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35">
         <v>96</v>
@@ -2454,20 +2644,20 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <v>47</v>
@@ -2476,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I36">
         <v>35</v>
@@ -2492,20 +2682,20 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <v>46</v>
@@ -2514,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I37">
         <v>66</v>
@@ -2530,20 +2720,20 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F38">
         <v>46</v>
@@ -2552,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38">
         <v>114</v>
@@ -2568,20 +2758,20 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F39">
         <v>46</v>
@@ -2590,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I39">
         <v>21939</v>
@@ -2606,20 +2796,20 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <v>46</v>
@@ -2628,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40">
         <v>66</v>
@@ -2644,20 +2834,20 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41">
         <v>46</v>
@@ -2666,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2682,20 +2872,20 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42">
         <v>46</v>
@@ -2704,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I42">
         <v>22</v>
@@ -2720,20 +2910,20 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F43">
         <v>46</v>
@@ -2742,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I43">
         <v>21596</v>
@@ -2758,20 +2948,20 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>46</v>
@@ -2780,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I44">
         <v>150</v>
@@ -2796,20 +2986,20 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F45">
         <v>46</v>
@@ -2818,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -2834,20 +3024,20 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46">
         <v>46</v>
@@ -2856,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I46">
         <v>203</v>
@@ -2872,20 +3062,20 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -2894,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I47">
         <v>101</v>
@@ -2910,20 +3100,20 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48">
         <v>46</v>
@@ -2932,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I48">
         <v>7</v>
@@ -2948,20 +3138,20 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49">
         <v>46</v>
@@ -2970,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I49">
         <v>253</v>
@@ -2986,20 +3176,20 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>46</v>
@@ -3008,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I50">
         <v>49</v>
@@ -3024,20 +3214,20 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F51">
         <v>46</v>
@@ -3046,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I51">
         <v>16</v>
@@ -3062,20 +3252,20 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52">
         <v>46</v>
@@ -3084,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I52">
         <v>39</v>
@@ -3100,20 +3290,20 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>46</v>
@@ -3122,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I53">
         <v>21656</v>
@@ -3138,20 +3328,20 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54">
         <v>45</v>
@@ -3160,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I54">
         <v>510</v>
@@ -3176,20 +3366,20 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F55">
         <v>45</v>
@@ -3198,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I55">
         <v>73</v>
@@ -3214,20 +3404,20 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56">
         <v>45</v>
@@ -3236,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I56">
         <v>16426</v>
